--- a/3_회계장부_0718.xlsx
+++ b/3_회계장부_0718.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C2EE8-FD3D-6147-989E-BFE27AF3B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAECD052-8D5C-0041-B9FD-18C6A214C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20900" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
   <si>
     <t>사용단체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,9 +570,6 @@
     <t>사유서 8</t>
   </si>
   <si>
-    <t>사유서 9</t>
-  </si>
-  <si>
     <t>사유서 10</t>
   </si>
   <si>
@@ -598,6 +595,12 @@
   </si>
   <si>
     <t>이지호(정이지,정민혁)</t>
+  </si>
+  <si>
+    <t>사유서 9_1</t>
+  </si>
+  <si>
+    <t>사유서 9_2</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1837,7 +1840,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" s="14">
         <v>192000</v>
@@ -1965,7 +1968,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="O28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2018,7 +2021,7 @@
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2046,7 +2049,7 @@
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2100,7 +2103,7 @@
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2286,7 +2289,7 @@
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2671,7 +2674,7 @@
         <v>131</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -2708,7 +2711,7 @@
         <v>131</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -2878,7 +2881,7 @@
         <v>105</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -3020,7 +3023,7 @@
         <v>112</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -3195,7 +3198,7 @@
         <v>124</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>

--- a/3_회계장부_0718.xlsx
+++ b/3_회계장부_0718.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAECD052-8D5C-0041-B9FD-18C6A214C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A436CE-30A1-6741-877A-F53CBA85D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20900" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9580" yWindow="500" windowWidth="28900" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="임베디드" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="189">
   <si>
     <t>사용단체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,126 @@
   </si>
   <si>
     <t>사유서 9_2</t>
+  </si>
+  <si>
+    <t>사업비</t>
+  </si>
+  <si>
+    <t>박준호(펀비어킹)</t>
+  </si>
+  <si>
+    <t>8월1</t>
+  </si>
+  <si>
+    <t>사유서13</t>
+  </si>
+  <si>
+    <t>회비입금</t>
+  </si>
+  <si>
+    <t>변상윤</t>
+  </si>
+  <si>
+    <t>김우찬</t>
+  </si>
+  <si>
+    <t>강성준</t>
+  </si>
+  <si>
+    <t>신현서</t>
+  </si>
+  <si>
+    <t>이재필</t>
+  </si>
+  <si>
+    <t>고건호</t>
+  </si>
+  <si>
+    <t>남준휘</t>
+  </si>
+  <si>
+    <t>서명원</t>
+  </si>
+  <si>
+    <t>송건희</t>
+  </si>
+  <si>
+    <t>고명훈</t>
+  </si>
+  <si>
+    <t>김규현</t>
+  </si>
+  <si>
+    <t>김지윤(임베20)</t>
+  </si>
+  <si>
+    <t>이다은</t>
+  </si>
+  <si>
+    <t>이석빈</t>
+  </si>
+  <si>
+    <t>정지원_20</t>
+  </si>
+  <si>
+    <t>노영빈</t>
+  </si>
+  <si>
+    <t>박시우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">임베 변하연 </t>
+  </si>
+  <si>
+    <t>정동교</t>
+  </si>
+  <si>
+    <t>구민성</t>
+  </si>
+  <si>
+    <t>장경은</t>
+  </si>
+  <si>
+    <t>최수빈</t>
+  </si>
+  <si>
+    <t>박소윤</t>
+  </si>
+  <si>
+    <t>이지민</t>
+  </si>
+  <si>
+    <t>박근호</t>
+  </si>
+  <si>
+    <t>안혜림</t>
+  </si>
+  <si>
+    <t>이지호</t>
+  </si>
+  <si>
+    <t>송진오</t>
+  </si>
+  <si>
+    <t>송진오 환불</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>김시진</t>
+  </si>
+  <si>
+    <t>회비환불</t>
+  </si>
+  <si>
+    <t>(주점 예약금, 9/8행사에서 환불예정)</t>
+  </si>
+  <si>
+    <t>1학기 감사 여기까지</t>
+  </si>
+  <si>
+    <t>사유서14</t>
   </si>
 </sst>
 </file>
@@ -649,7 +769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,18 +796,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -743,6 +857,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -750,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,9 +912,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,15 +934,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1112,10 +1261,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1124,13 +1273,13 @@
     <col min="2" max="2" width="5.6640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="9" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1138,21 +1287,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1162,27 +1311,27 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25">
-        <v>45125</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30">
+        <v>45174</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1201,8 +1350,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
@@ -1214,23 +1363,23 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1267,10 +1416,10 @@
       <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1288,7 +1437,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>44971</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1323,12 +1472,12 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>44971</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1361,7 +1510,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>44972</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1376,7 +1525,7 @@
       <c r="E8" s="8">
         <v>90000</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1394,7 +1543,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
@@ -1407,7 +1556,7 @@
       <c r="E9" s="8">
         <v>90000</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1426,7 +1575,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>44973</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1441,7 +1590,7 @@
       <c r="E10" s="8">
         <v>90000</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1460,12 +1609,12 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>44973</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -1495,12 +1644,12 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>44977</v>
       </c>
       <c r="G12" s="5"/>
@@ -1530,12 +1679,12 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>44977</v>
       </c>
       <c r="G13" s="5"/>
@@ -1565,7 +1714,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>44982</v>
       </c>
       <c r="B14" s="5"/>
@@ -1578,7 +1727,7 @@
       <c r="E14" s="8">
         <v>39</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1591,7 +1740,7 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>44984</v>
       </c>
       <c r="B15" s="5"/>
@@ -1604,7 +1753,7 @@
       <c r="E15" s="8">
         <v>96000</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1617,7 +1766,7 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>44984</v>
       </c>
       <c r="B16" s="5"/>
@@ -1630,7 +1779,7 @@
       <c r="E16" s="8">
         <v>384000</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1650,7 +1799,7 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>44984</v>
       </c>
       <c r="B17" s="5"/>
@@ -1663,7 +1812,7 @@
       <c r="E17" s="8">
         <v>192000</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1676,7 +1825,7 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>44984</v>
       </c>
       <c r="B18" s="5"/>
@@ -1689,7 +1838,7 @@
       <c r="E18" s="8">
         <v>96000</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1702,7 +1851,7 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>44985</v>
       </c>
       <c r="B19" s="5"/>
@@ -1715,7 +1864,7 @@
       <c r="E19" s="8">
         <v>192000</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1728,7 +1877,7 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>44985</v>
       </c>
       <c r="B20" s="5"/>
@@ -1741,7 +1890,7 @@
       <c r="E20" s="8">
         <v>192000</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1754,7 +1903,7 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>44985</v>
       </c>
       <c r="B21" s="5"/>
@@ -1767,7 +1916,7 @@
       <c r="E21" s="8">
         <v>384000</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1780,7 +1929,7 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>44985</v>
       </c>
       <c r="B22" s="5"/>
@@ -1790,10 +1939,10 @@
       <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>192000</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1806,7 +1955,7 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>44985</v>
       </c>
       <c r="B23" s="5"/>
@@ -1816,10 +1965,10 @@
       <c r="D23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>288000</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1832,7 +1981,7 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>44985</v>
       </c>
       <c r="B24" s="5"/>
@@ -1842,10 +1991,10 @@
       <c r="D24" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>192000</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1858,7 +2007,7 @@
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>44985</v>
       </c>
       <c r="B25" s="5"/>
@@ -1868,10 +2017,10 @@
       <c r="D25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>96000</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1884,7 +2033,7 @@
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>44986</v>
       </c>
       <c r="B26" s="5"/>
@@ -1894,10 +2043,10 @@
       <c r="D26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>96000</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1910,12 +2059,12 @@
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13">
+      <c r="E27" s="13"/>
+      <c r="F27" s="12">
         <v>44986</v>
       </c>
       <c r="G27" s="5"/>
@@ -1932,10 +2081,10 @@
         <f t="shared" si="2"/>
         <v>1686033</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="M27" s="19" t="s">
+      <c r="M27" s="17" t="s">
         <v>98</v>
       </c>
       <c r="O27" t="s">
@@ -1943,7 +2092,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>44986</v>
       </c>
       <c r="B28" s="5"/>
@@ -1953,10 +2102,10 @@
       <c r="D28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>96000</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1972,7 +2121,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>44986</v>
       </c>
       <c r="B29" s="5"/>
@@ -1982,10 +2131,10 @@
       <c r="D29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>1490000</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2001,8 +2150,8 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="13">
+      <c r="E30" s="13"/>
+      <c r="F30" s="12">
         <v>44987</v>
       </c>
       <c r="G30" s="5"/>
@@ -2025,12 +2174,12 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="13">
+      <c r="E31" s="13"/>
+      <c r="F31" s="12">
         <v>44988</v>
       </c>
       <c r="G31" s="5"/>
@@ -2053,7 +2202,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>44988</v>
       </c>
       <c r="B32" s="5"/>
@@ -2063,10 +2212,10 @@
       <c r="D32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>20000</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2079,12 +2228,12 @@
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13">
+      <c r="E33" s="13"/>
+      <c r="F33" s="12">
         <v>44988</v>
       </c>
       <c r="G33" s="5"/>
@@ -2107,7 +2256,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>44988</v>
       </c>
       <c r="B34" s="5"/>
@@ -2117,10 +2266,10 @@
       <c r="D34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>96000</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2133,7 +2282,7 @@
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>44988</v>
       </c>
       <c r="B35" s="5"/>
@@ -2143,10 +2292,10 @@
       <c r="D35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>20000</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2159,7 +2308,7 @@
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>44988</v>
       </c>
       <c r="B36" s="5"/>
@@ -2169,10 +2318,10 @@
       <c r="D36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>10000</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2185,7 +2334,7 @@
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>44988</v>
       </c>
       <c r="B37" s="5"/>
@@ -2195,10 +2344,10 @@
       <c r="D37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>20000</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2211,7 +2360,7 @@
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>44988</v>
       </c>
       <c r="B38" s="5"/>
@@ -2221,10 +2370,10 @@
       <c r="D38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>10000</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2237,12 +2386,12 @@
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="13">
+      <c r="E39" s="13"/>
+      <c r="F39" s="12">
         <v>44989</v>
       </c>
       <c r="G39" s="5"/>
@@ -2265,12 +2414,12 @@
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="13">
+      <c r="E40" s="13"/>
+      <c r="F40" s="12">
         <v>44989</v>
       </c>
       <c r="G40" s="5"/>
@@ -2288,12 +2437,12 @@
         <v>1038593</v>
       </c>
       <c r="L40" s="5"/>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>44990</v>
       </c>
       <c r="B41" s="5"/>
@@ -2303,10 +2452,10 @@
       <c r="D41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>86000</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2319,7 +2468,7 @@
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>44995</v>
       </c>
       <c r="B42" s="5"/>
@@ -2329,10 +2478,10 @@
       <c r="D42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>4</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -2345,12 +2494,12 @@
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="13">
+      <c r="E43" s="13"/>
+      <c r="F43" s="12">
         <v>44998</v>
       </c>
       <c r="G43" s="5"/>
@@ -2375,12 +2524,12 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="13">
+      <c r="E44" s="13"/>
+      <c r="F44" s="12">
         <v>44999</v>
       </c>
       <c r="G44" s="5"/>
@@ -2403,12 +2552,12 @@
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="13">
+      <c r="E45" s="13"/>
+      <c r="F45" s="12">
         <v>44999</v>
       </c>
       <c r="G45" s="5"/>
@@ -2431,7 +2580,7 @@
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>45001</v>
       </c>
       <c r="B46" s="5"/>
@@ -2441,10 +2590,10 @@
       <c r="D46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>2040000</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -2457,12 +2606,12 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13">
+      <c r="E47" s="13"/>
+      <c r="F47" s="12">
         <v>45001</v>
       </c>
       <c r="G47" s="5"/>
@@ -2487,7 +2636,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>45001</v>
       </c>
       <c r="B48" s="5"/>
@@ -2497,10 +2646,10 @@
       <c r="D48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>30000</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2513,12 +2662,12 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="13">
+      <c r="E49" s="13"/>
+      <c r="F49" s="12">
         <v>45001</v>
       </c>
       <c r="G49" s="5"/>
@@ -2536,24 +2685,24 @@
         <v>1020087</v>
       </c>
       <c r="L49" s="5"/>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="13">
+      <c r="E50" s="13"/>
+      <c r="F50" s="12">
         <v>45003</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="15" t="s">
         <v>77</v>
       </c>
       <c r="J50" s="8">
@@ -2576,19 +2725,19 @@
       <c r="T50" s="1"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="13">
+      <c r="E51" s="13"/>
+      <c r="F51" s="12">
         <v>45003</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="14" t="s">
         <v>77</v>
       </c>
       <c r="J51" s="8">
@@ -2611,7 +2760,7 @@
       <c r="T51" s="1"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>45003</v>
       </c>
       <c r="B52" s="5"/>
@@ -2621,10 +2770,10 @@
       <c r="D52" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <v>1350000</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -2633,10 +2782,10 @@
         <f t="shared" si="2"/>
         <v>2350887</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="M52" s="20" t="s">
+      <c r="M52" s="18" t="s">
         <v>132</v>
       </c>
       <c r="N52" s="1"/>
@@ -2648,12 +2797,12 @@
       <c r="T52" s="1"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="13">
+      <c r="E53" s="13"/>
+      <c r="F53" s="12">
         <v>45003</v>
       </c>
       <c r="G53" s="5"/>
@@ -2685,12 +2834,12 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="13">
+      <c r="E54" s="13"/>
+      <c r="F54" s="12">
         <v>45003</v>
       </c>
       <c r="G54" s="5"/>
@@ -2722,7 +2871,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>45010</v>
       </c>
       <c r="B55" s="5"/>
@@ -2732,10 +2881,10 @@
       <c r="D55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <v>111</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -2755,7 +2904,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>45026</v>
       </c>
       <c r="B56" s="5"/>
@@ -2765,10 +2914,10 @@
       <c r="D56" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <v>10456</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="12"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="J56" s="8"/>
@@ -2787,12 +2936,12 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="13">
+      <c r="E57" s="13"/>
+      <c r="F57" s="12">
         <v>45030</v>
       </c>
       <c r="G57" s="5"/>
@@ -2822,7 +2971,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>45032</v>
       </c>
       <c r="B58" s="5"/>
@@ -2832,10 +2981,10 @@
       <c r="D58" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <v>86000</v>
       </c>
-      <c r="F58" s="13"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -2855,12 +3004,12 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="13">
+      <c r="E59" s="13"/>
+      <c r="F59" s="12">
         <v>45032</v>
       </c>
       <c r="G59" s="5"/>
@@ -2892,12 +3041,12 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="13">
+      <c r="E60" s="13"/>
+      <c r="F60" s="12">
         <v>45034</v>
       </c>
       <c r="G60" s="5"/>
@@ -2927,7 +3076,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>45045</v>
       </c>
       <c r="B61" s="5"/>
@@ -2937,10 +3086,10 @@
       <c r="D61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="13">
         <v>183</v>
       </c>
-      <c r="F61" s="13"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -2960,12 +3109,12 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="13">
+      <c r="E62" s="13"/>
+      <c r="F62" s="12">
         <v>45050</v>
       </c>
       <c r="G62" s="5"/>
@@ -2997,12 +3146,12 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="13">
+      <c r="E63" s="13"/>
+      <c r="F63" s="12">
         <v>45051</v>
       </c>
       <c r="G63" s="5"/>
@@ -3034,12 +3183,12 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="13">
+      <c r="E64" s="13"/>
+      <c r="F64" s="12">
         <v>45051</v>
       </c>
       <c r="G64" s="5"/>
@@ -3069,12 +3218,12 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="13">
+      <c r="E65" s="13"/>
+      <c r="F65" s="12">
         <v>45053</v>
       </c>
       <c r="G65" s="5"/>
@@ -3104,12 +3253,12 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="13">
+      <c r="E66" s="13"/>
+      <c r="F66" s="12">
         <v>45053</v>
       </c>
       <c r="G66" s="5"/>
@@ -3139,7 +3288,7 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>45055</v>
       </c>
       <c r="B67" s="5"/>
@@ -3149,10 +3298,10 @@
       <c r="D67" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="13">
         <v>65400</v>
       </c>
-      <c r="F67" s="13"/>
+      <c r="F67" s="12"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -3172,12 +3321,12 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="13">
+      <c r="E68" s="13"/>
+      <c r="F68" s="12">
         <v>45055</v>
       </c>
       <c r="G68" s="5"/>
@@ -3209,7 +3358,7 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>45056</v>
       </c>
       <c r="B69" s="5"/>
@@ -3219,10 +3368,10 @@
       <c r="D69" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <v>88</v>
       </c>
-      <c r="F69" s="13"/>
+      <c r="F69" s="12"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -3242,7 +3391,7 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>45073</v>
       </c>
       <c r="B70" s="5"/>
@@ -3252,10 +3401,10 @@
       <c r="D70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="13">
         <v>121</v>
       </c>
-      <c r="F70" s="13"/>
+      <c r="F70" s="12"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -3275,7 +3424,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>45089</v>
       </c>
       <c r="B71" s="5"/>
@@ -3285,10 +3434,10 @@
       <c r="D71" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="13">
         <v>550</v>
       </c>
-      <c r="F71" s="13"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="J71" s="8"/>
@@ -3306,8 +3455,8 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
+    <row r="72" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12">
         <v>45101</v>
       </c>
       <c r="B72" s="5"/>
@@ -3317,45 +3466,54 @@
       <c r="D72" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="13">
         <v>117</v>
       </c>
-      <c r="F72" s="13"/>
+      <c r="F72" s="12"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="8"/>
-      <c r="K72" s="18">
+      <c r="K72" s="19">
         <f t="shared" si="2"/>
         <v>1666823</v>
       </c>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
+      <c r="O72" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8">
+      <c r="A73" s="20">
+        <v>45136</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="22">
+        <v>139</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23">
         <f t="shared" si="2"/>
-        <v>1666823</v>
-      </c>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
+        <v>1666962</v>
+      </c>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -3365,19 +3523,27 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
+      <c r="A74" s="12">
+        <v>45164</v>
+      </c>
       <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="13"/>
+      <c r="C74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="13">
+        <v>117</v>
+      </c>
+      <c r="F74" s="12"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1667079</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -3390,44 +3556,65 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="12">
+        <v>45164</v>
+      </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="8"/>
+      <c r="H75" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J75" s="8">
+        <v>100000</v>
+      </c>
       <c r="K75" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
-      </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="1"/>
+        <v>1567079</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="P75" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
+      <c r="A76" s="12">
+        <v>45170</v>
+      </c>
       <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="13"/>
+      <c r="C76" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F76" s="12"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1579079</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -3440,19 +3627,27 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
+      <c r="A77" s="12">
+        <v>45170</v>
+      </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="13"/>
+      <c r="C77" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F77" s="12"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1591079</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -3465,19 +3660,27 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
+      <c r="A78" s="12">
+        <v>45170</v>
+      </c>
       <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="13"/>
+      <c r="C78" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F78" s="12"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1592279</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -3490,19 +3693,27 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
+      <c r="A79" s="12">
+        <v>45170</v>
+      </c>
       <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="13"/>
+      <c r="C79" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F79" s="12"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1604279</v>
       </c>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -3515,19 +3726,27 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
+      <c r="A80" s="12">
+        <v>45170</v>
+      </c>
       <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="13"/>
+      <c r="C80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F80" s="12"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1616279</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -3540,19 +3759,27 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
+      <c r="A81" s="12">
+        <v>45170</v>
+      </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="13"/>
+      <c r="C81" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" s="13">
+        <v>10800</v>
+      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1627079</v>
       </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
@@ -3565,19 +3792,27 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" s="13"/>
+      <c r="A82" s="12">
+        <v>45170</v>
+      </c>
       <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="13"/>
+      <c r="C82" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F82" s="12"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1639079</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -3590,19 +3825,27 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
+      <c r="A83" s="12">
+        <v>45170</v>
+      </c>
       <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="13"/>
+      <c r="C83" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F83" s="12"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1651079</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -3615,19 +3858,27 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
+      <c r="A84" s="12">
+        <v>45170</v>
+      </c>
       <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="13"/>
+      <c r="C84" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F84" s="12"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1663079</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -3640,19 +3891,27 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
+      <c r="A85" s="12">
+        <v>45171</v>
+      </c>
       <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="13"/>
+      <c r="C85" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F85" s="12"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1675079</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
@@ -3665,19 +3924,27 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
+      <c r="A86" s="12">
+        <v>45172</v>
+      </c>
       <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="13"/>
+      <c r="C86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F86" s="12"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1687079</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -3690,19 +3957,27 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
+      <c r="A87" s="12">
+        <v>45172</v>
+      </c>
       <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="13"/>
+      <c r="C87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F87" s="12"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8">
         <f t="shared" si="2"/>
-        <v>1666823</v>
+        <v>1699079</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -3715,19 +3990,27 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
+      <c r="A88" s="12">
+        <v>45172</v>
+      </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="13"/>
+      <c r="C88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F88" s="12"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8">
         <f t="shared" ref="K88:K112" si="3">K87+E88-J88</f>
-        <v>1666823</v>
+        <v>1711079</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -3740,19 +4023,27 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
+      <c r="A89" s="12">
+        <v>45172</v>
+      </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="13"/>
+      <c r="C89" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" s="13">
+        <v>22000</v>
+      </c>
+      <c r="F89" s="12"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1733079</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -3765,19 +4056,27 @@
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
+      <c r="A90" s="12">
+        <v>45172</v>
+      </c>
       <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="13"/>
+      <c r="C90" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E90" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F90" s="12"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1745079</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -3790,19 +4089,27 @@
       <c r="T90" s="1"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
+      <c r="A91" s="12">
+        <v>45173</v>
+      </c>
       <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="13"/>
+      <c r="C91" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F91" s="12"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1757079</v>
       </c>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
@@ -3815,19 +4122,27 @@
       <c r="T91" s="1"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
+      <c r="A92" s="12">
+        <v>45173</v>
+      </c>
       <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="13"/>
+      <c r="C92" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E92" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F92" s="12"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1769079</v>
       </c>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
@@ -3840,19 +4155,27 @@
       <c r="T92" s="1"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
+      <c r="A93" s="12">
+        <v>45173</v>
+      </c>
       <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="13"/>
+      <c r="C93" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E93" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F93" s="12"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1781079</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -3865,19 +4188,27 @@
       <c r="T93" s="1"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A94" s="13"/>
+      <c r="A94" s="12">
+        <v>45173</v>
+      </c>
       <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="13"/>
+      <c r="C94" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E94" s="13">
+        <v>22000</v>
+      </c>
+      <c r="F94" s="12"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1803079</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -3890,19 +4221,27 @@
       <c r="T94" s="1"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A95" s="13"/>
+      <c r="A95" s="12">
+        <v>45174</v>
+      </c>
       <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="13"/>
+      <c r="C95" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E95" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F95" s="12"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1815079</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -3915,19 +4254,27 @@
       <c r="T95" s="1"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
+      <c r="A96" s="12">
+        <v>45174</v>
+      </c>
       <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="13"/>
+      <c r="C96" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" s="13">
+        <v>22000</v>
+      </c>
+      <c r="F96" s="12"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1837079</v>
       </c>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -3940,19 +4287,27 @@
       <c r="T96" s="1"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A97" s="13"/>
+      <c r="A97" s="12">
+        <v>45174</v>
+      </c>
       <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="13"/>
+      <c r="C97" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F97" s="12"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1849079</v>
       </c>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -3965,19 +4320,27 @@
       <c r="T97" s="1"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
+      <c r="A98" s="12">
+        <v>45174</v>
+      </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="13"/>
+      <c r="C98" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F98" s="12"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1861079</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -3990,19 +4353,27 @@
       <c r="T98" s="1"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
+      <c r="A99" s="12">
+        <v>45174</v>
+      </c>
       <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="13"/>
+      <c r="C99" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F99" s="12"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1873079</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -4015,19 +4386,27 @@
       <c r="T99" s="1"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
+      <c r="A100" s="12">
+        <v>45174</v>
+      </c>
       <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="13"/>
+      <c r="C100" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F100" s="12"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1883079</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -4040,19 +4419,27 @@
       <c r="T100" s="1"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A101" s="13"/>
+      <c r="A101" s="12">
+        <v>45174</v>
+      </c>
       <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="13"/>
+      <c r="C101" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" s="13">
+        <v>22000</v>
+      </c>
+      <c r="F101" s="12"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1905079</v>
       </c>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -4065,19 +4452,27 @@
       <c r="T101" s="1"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A102" s="13"/>
+      <c r="A102" s="12">
+        <v>45174</v>
+      </c>
       <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="13"/>
+      <c r="C102" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F102" s="12"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1917079</v>
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
@@ -4090,19 +4485,27 @@
       <c r="T102" s="1"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A103" s="13"/>
+      <c r="A103" s="12">
+        <v>45174</v>
+      </c>
       <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="13"/>
+      <c r="C103" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F103" s="12"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1929079</v>
       </c>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
@@ -4115,19 +4518,27 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A104" s="13"/>
+      <c r="A104" s="12">
+        <v>45174</v>
+      </c>
       <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="13"/>
+      <c r="C104" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E104" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F104" s="12"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1939079</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -4140,19 +4551,27 @@
       <c r="T104" s="1"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A105" s="13"/>
+      <c r="A105" s="12">
+        <v>45174</v>
+      </c>
       <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="13"/>
+      <c r="C105" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E105" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F105" s="12"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1949079</v>
       </c>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
@@ -4165,19 +4584,27 @@
       <c r="T105" s="1"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A106" s="13"/>
+      <c r="A106" s="12">
+        <v>45174</v>
+      </c>
       <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="13"/>
+      <c r="C106" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F106" s="12"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1961079</v>
       </c>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -4190,19 +4617,27 @@
       <c r="T106" s="1"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A107" s="13"/>
+      <c r="A107" s="12">
+        <v>45174</v>
+      </c>
       <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="13"/>
+      <c r="C107" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F107" s="12"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8">
-        <f t="shared" si="3"/>
-        <v>1666823</v>
+        <f>K106+E107-J107</f>
+        <v>1973079</v>
       </c>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
@@ -4215,19 +4650,27 @@
       <c r="T107" s="1"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A108" s="13"/>
+      <c r="A108" s="12">
+        <v>45174</v>
+      </c>
       <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="13"/>
+      <c r="C108" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F108" s="12"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8">
-        <f t="shared" si="3"/>
-        <v>1666823</v>
+        <f>K107+E108-J108</f>
+        <v>1985079</v>
       </c>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
@@ -4240,22 +4683,32 @@
       <c r="T108" s="1"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A109" s="13"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="12">
+        <v>45174</v>
+      </c>
       <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="8"/>
+      <c r="H109" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J109" s="8">
+        <v>12000</v>
+      </c>
       <c r="K109" s="8">
-        <f t="shared" si="3"/>
-        <v>1666823</v>
+        <f>K108+E109-J109</f>
+        <v>1973079</v>
       </c>
       <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
+      <c r="M109" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -4265,19 +4718,27 @@
       <c r="T109" s="1"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A110" s="13"/>
+      <c r="A110" s="12">
+        <v>45174</v>
+      </c>
       <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="13"/>
+      <c r="C110" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E110" s="13">
+        <v>12000</v>
+      </c>
+      <c r="F110" s="12"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8">
-        <f t="shared" si="3"/>
-        <v>1666823</v>
+        <f>K109+E110-J110</f>
+        <v>1985079</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
@@ -4290,19 +4751,19 @@
       <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A111" s="13"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="12"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1985079</v>
       </c>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
@@ -4315,19 +4776,19 @@
       <c r="T111" s="1"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A112" s="13"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="12"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8">
         <f t="shared" si="3"/>
-        <v>1666823</v>
+        <v>1985079</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -4340,19 +4801,22 @@
       <c r="T112" s="1"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8">
+        <f t="shared" ref="K113:K131" si="4">K112+E113-J113</f>
+        <v>1985079</v>
+      </c>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
@@ -4362,19 +4826,22 @@
       <c r="T113" s="1"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
@@ -4384,19 +4851,22 @@
       <c r="T114" s="1"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
@@ -4406,19 +4876,22 @@
       <c r="T115" s="1"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
@@ -4428,19 +4901,22 @@
       <c r="T116" s="1"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
@@ -4450,19 +4926,22 @@
       <c r="T117" s="1"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -4472,19 +4951,22 @@
       <c r="T118" s="1"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
@@ -4494,19 +4976,22 @@
       <c r="T119" s="1"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -4516,19 +5001,22 @@
       <c r="T120" s="1"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -4538,19 +5026,22 @@
       <c r="T121" s="1"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -4560,19 +5051,22 @@
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
@@ -4582,19 +5076,22 @@
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -4604,19 +5101,22 @@
       <c r="T124" s="1"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -4626,19 +5126,22 @@
       <c r="T125" s="1"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
@@ -4648,19 +5151,22 @@
       <c r="T126" s="1"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -4670,19 +5176,22 @@
       <c r="T127" s="1"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -4692,19 +5201,22 @@
       <c r="T128" s="1"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -4714,19 +5226,22 @@
       <c r="T129" s="1"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -4736,19 +5251,22 @@
       <c r="T130" s="1"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8">
+        <f t="shared" si="4"/>
+        <v>1985079</v>
+      </c>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -4758,19 +5276,22 @@
       <c r="T131" s="1"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8">
+        <f t="shared" ref="K132:K169" si="5">K131+E132-J132</f>
+        <v>1985079</v>
+      </c>
+      <c r="L132" s="5"/>
+      <c r="M132" s="5"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -4780,19 +5301,22 @@
       <c r="T132" s="1"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
@@ -4802,19 +5326,22 @@
       <c r="T133" s="1"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
@@ -4824,19 +5351,22 @@
       <c r="T134" s="1"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L135" s="5"/>
+      <c r="M135" s="5"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
@@ -4846,19 +5376,22 @@
       <c r="T135" s="1"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
@@ -4866,6 +5399,600 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A137" s="12"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L137" s="5"/>
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A138" s="12"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L138" s="5"/>
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A139" s="12"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L139" s="5"/>
+      <c r="M139" s="5"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A140" s="12"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L140" s="5"/>
+      <c r="M140" s="5"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="12"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A142" s="12"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" s="12"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" s="12"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="12"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="12"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="12"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="12"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="12"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="12"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="12"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="12"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="12"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L153" s="5"/>
+      <c r="M153" s="5"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="12"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L154" s="5"/>
+      <c r="M154" s="5"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="12"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="12"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L156" s="5"/>
+      <c r="M156" s="5"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="12"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="12"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L158" s="5"/>
+      <c r="M158" s="5"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="12"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="12"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="12"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="12"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="12"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="12"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L164" s="5"/>
+      <c r="M164" s="5"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="12"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="12"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="12"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="12"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="12"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="8">
+        <f t="shared" si="5"/>
+        <v>1985079</v>
+      </c>
+      <c r="L169" s="5"/>
+      <c r="M169" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4894,44 +6021,44 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30">
         <v>44929</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -4943,29 +6070,29 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -4995,10 +6122,10 @@
       <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -5009,7 +6136,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>44635</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -5037,7 +6164,7 @@
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>44646</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -5052,7 +6179,7 @@
       <c r="E7" s="8">
         <v>8</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -5065,7 +6192,7 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>44674</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -5080,7 +6207,7 @@
       <c r="E8" s="8">
         <v>20</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -5093,7 +6220,7 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>44709</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -5108,7 +6235,7 @@
       <c r="E9" s="8">
         <v>25</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -5121,7 +6248,7 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>44737</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -5136,7 +6263,7 @@
       <c r="E10" s="8">
         <v>20</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -5149,12 +6276,12 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>44762</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -5179,7 +6306,7 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>44765</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5194,7 +6321,7 @@
       <c r="E12" s="8">
         <v>20</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -5207,7 +6334,7 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>44783</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -5222,7 +6349,7 @@
       <c r="E13" s="8">
         <v>53</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -5235,12 +6362,12 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>44783</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -5265,12 +6392,12 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -5295,7 +6422,7 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>44800</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -5310,7 +6437,7 @@
       <c r="E16" s="8">
         <v>21</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -5323,7 +6450,7 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>44817</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -5338,7 +6465,7 @@
       <c r="E17" s="8">
         <v>100</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -5351,7 +6478,7 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>44828</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5366,7 +6493,7 @@
       <c r="E18" s="8">
         <v>14</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -5379,12 +6506,12 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -5409,7 +6536,7 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>44845</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -5424,7 +6551,7 @@
       <c r="E20" s="8">
         <v>372</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -5437,7 +6564,7 @@
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>44863</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5452,7 +6579,7 @@
       <c r="E21" s="8">
         <v>2</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -5465,7 +6592,7 @@
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>45256</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -5477,10 +6604,10 @@
       <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -5493,7 +6620,7 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>45284</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -5505,10 +6632,10 @@
       <c r="D23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5521,12 +6648,12 @@
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>45291</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -5541,7 +6668,7 @@
       <c r="J24" s="8">
         <v>5693</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L24" s="5"/>

--- a/3_회계장부_0718.xlsx
+++ b/3_회계장부_0718.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A436CE-30A1-6741-877A-F53CBA85D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884C7360-A686-A540-A5E1-4FFDD5DDC331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="500" windowWidth="28900" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7600" yWindow="500" windowWidth="28900" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="임베디드" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="194">
   <si>
     <t>사용단체</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,12 +609,6 @@
     <t>박준호(펀비어킹)</t>
   </si>
   <si>
-    <t>8월1</t>
-  </si>
-  <si>
-    <t>사유서13</t>
-  </si>
-  <si>
     <t>회비입금</t>
   </si>
   <si>
@@ -714,13 +708,34 @@
     <t>회비환불</t>
   </si>
   <si>
-    <t>(주점 예약금, 9/8행사에서 환불예정)</t>
-  </si>
-  <si>
     <t>1학기 감사 여기까지</t>
   </si>
   <si>
-    <t>사유서14</t>
+    <t>방규리</t>
+  </si>
+  <si>
+    <t>최민주</t>
+  </si>
+  <si>
+    <t>펀비어킹</t>
+  </si>
+  <si>
+    <t>환불금입금</t>
+  </si>
+  <si>
+    <t>(주점 예약금, 9/9 환불되었음.)</t>
+  </si>
+  <si>
+    <t>사유서 13</t>
+  </si>
+  <si>
+    <t>사유서 14</t>
+  </si>
+  <si>
+    <t>9월1</t>
+  </si>
+  <si>
+    <t>사유서 13 (연결됨)</t>
   </si>
 </sst>
 </file>
@@ -769,7 +784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,8 +815,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -871,10 +892,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -886,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,9 +976,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,10 +988,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,6 +1026,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1263,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:T169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1281,27 +1335,27 @@
     <col min="10" max="10" width="16.1640625" style="9" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" style="9" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1311,27 +1365,27 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30">
-        <v>45174</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35">
+        <v>45200</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1363,23 +1417,23 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -3455,65 +3509,65 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="12">
+    <row r="72" spans="1:20" s="28" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
         <v>45101</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5" t="s">
+      <c r="B72" s="24"/>
+      <c r="C72" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="25">
         <v>117</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="19">
+      <c r="F72" s="23"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="27">
         <f t="shared" si="2"/>
         <v>1666823</v>
       </c>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="O72" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" s="20">
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="O72" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+    </row>
+    <row r="73" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19">
         <v>45136</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="21">
         <v>139</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23">
+      <c r="F73" s="19"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22">
         <f t="shared" si="2"/>
         <v>1666962</v>
       </c>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -3578,15 +3632,13 @@
         <f t="shared" si="2"/>
         <v>1567079</v>
       </c>
-      <c r="L75" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>152</v>
+      <c r="L75" s="37"/>
+      <c r="M75" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -3599,10 +3651,10 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E76" s="13">
         <v>12000</v>
@@ -3632,10 +3684,10 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="E77" s="13">
         <v>12000</v>
@@ -3665,10 +3717,10 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E78" s="13">
         <v>1200</v>
@@ -3698,10 +3750,10 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E79" s="13">
         <v>12000</v>
@@ -3731,10 +3783,10 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E80" s="13">
         <v>12000</v>
@@ -3764,10 +3816,10 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E81" s="13">
         <v>10800</v>
@@ -3797,10 +3849,10 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E82" s="13">
         <v>12000</v>
@@ -3830,10 +3882,10 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E83" s="13">
         <v>12000</v>
@@ -3863,10 +3915,10 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E84" s="13">
         <v>12000</v>
@@ -3896,10 +3948,10 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E85" s="13">
         <v>12000</v>
@@ -3929,10 +3981,10 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E86" s="13">
         <v>12000</v>
@@ -3962,10 +4014,10 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E87" s="13">
         <v>12000</v>
@@ -3995,10 +4047,10 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E88" s="13">
         <v>12000</v>
@@ -4028,10 +4080,10 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E89" s="13">
         <v>22000</v>
@@ -4061,10 +4113,10 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E90" s="13">
         <v>12000</v>
@@ -4094,10 +4146,10 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E91" s="13">
         <v>12000</v>
@@ -4127,10 +4179,10 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E92" s="13">
         <v>12000</v>
@@ -4160,10 +4212,10 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E93" s="13">
         <v>12000</v>
@@ -4193,10 +4245,10 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E94" s="13">
         <v>22000</v>
@@ -4226,10 +4278,10 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E95" s="13">
         <v>12000</v>
@@ -4259,10 +4311,10 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E96" s="13">
         <v>22000</v>
@@ -4292,10 +4344,10 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E97" s="13">
         <v>12000</v>
@@ -4325,10 +4377,10 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E98" s="13">
         <v>12000</v>
@@ -4358,10 +4410,10 @@
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E99" s="13">
         <v>12000</v>
@@ -4391,10 +4443,10 @@
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E100" s="13">
         <v>10000</v>
@@ -4424,10 +4476,10 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E101" s="13">
         <v>22000</v>
@@ -4457,10 +4509,10 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E102" s="13">
         <v>12000</v>
@@ -4490,10 +4542,10 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E103" s="13">
         <v>12000</v>
@@ -4523,10 +4575,10 @@
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E104" s="13">
         <v>10000</v>
@@ -4556,10 +4608,10 @@
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E105" s="13">
         <v>10000</v>
@@ -4589,10 +4641,10 @@
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E106" s="13">
         <v>12000</v>
@@ -4622,10 +4674,10 @@
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E107" s="13">
         <v>12000</v>
@@ -4655,10 +4707,10 @@
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E108" s="13">
         <v>12000</v>
@@ -4693,10 +4745,10 @@
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J109" s="8">
         <v>12000</v>
@@ -4707,7 +4759,7 @@
       </c>
       <c r="L109" s="5"/>
       <c r="M109" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -4723,10 +4775,10 @@
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E110" s="13">
         <v>12000</v>
@@ -4751,11 +4803,19 @@
       <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A111" s="12"/>
+      <c r="A111" s="12">
+        <v>45175</v>
+      </c>
       <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="13"/>
+      <c r="C111" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E111" s="13">
+        <v>22000</v>
+      </c>
       <c r="F111" s="12"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -4763,7 +4823,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8">
         <f t="shared" si="3"/>
-        <v>1985079</v>
+        <v>2007079</v>
       </c>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
@@ -4776,11 +4836,19 @@
       <c r="T111" s="1"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A112" s="12"/>
+      <c r="A112" s="12">
+        <v>45175</v>
+      </c>
       <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="13"/>
+      <c r="C112" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112" s="13">
+        <v>10000</v>
+      </c>
       <c r="F112" s="12"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -4788,7 +4856,7 @@
       <c r="J112" s="8"/>
       <c r="K112" s="8">
         <f t="shared" si="3"/>
-        <v>1985079</v>
+        <v>2017079</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
@@ -4801,11 +4869,19 @@
       <c r="T112" s="1"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A113" s="12"/>
+      <c r="A113" s="12">
+        <v>45175</v>
+      </c>
       <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="13"/>
+      <c r="C113" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E113" s="13">
+        <v>12000</v>
+      </c>
       <c r="F113" s="12"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -4813,7 +4889,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8">
         <f t="shared" ref="K113:K131" si="4">K112+E113-J113</f>
-        <v>1985079</v>
+        <v>2029079</v>
       </c>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
@@ -4831,16 +4907,26 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="13"/>
-      <c r="F114" s="12"/>
+      <c r="F114" s="12">
+        <v>45178</v>
+      </c>
       <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="8"/>
+      <c r="H114" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J114" s="8">
+        <v>1064900</v>
+      </c>
       <c r="K114" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
-      </c>
-      <c r="L114" s="5"/>
+        <v>964179</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="M114" s="5"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -4851,11 +4937,19 @@
       <c r="T114" s="1"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A115" s="12"/>
+      <c r="A115" s="12">
+        <v>45178</v>
+      </c>
       <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="13"/>
+      <c r="C115" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="13">
+        <v>100000</v>
+      </c>
       <c r="F115" s="12"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -4863,10 +4957,12 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
-      </c>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
+        <v>1064179</v>
+      </c>
+      <c r="L115" s="37"/>
+      <c r="M115" s="30" t="s">
+        <v>193</v>
+      </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
@@ -4876,11 +4972,19 @@
       <c r="T115" s="1"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A116" s="12"/>
+      <c r="A116" s="12">
+        <v>45192</v>
+      </c>
       <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="13"/>
+      <c r="C116" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" s="13">
+        <v>97</v>
+      </c>
       <c r="F116" s="12"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -4888,7 +4992,7 @@
       <c r="J116" s="8"/>
       <c r="K116" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
@@ -4913,7 +5017,7 @@
       <c r="J117" s="8"/>
       <c r="K117" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -4938,7 +5042,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
@@ -4963,7 +5067,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
@@ -4988,7 +5092,7 @@
       <c r="J120" s="8"/>
       <c r="K120" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -5013,7 +5117,7 @@
       <c r="J121" s="8"/>
       <c r="K121" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -5038,7 +5142,7 @@
       <c r="J122" s="8"/>
       <c r="K122" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -5063,7 +5167,7 @@
       <c r="J123" s="8"/>
       <c r="K123" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
@@ -5088,7 +5192,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
@@ -5113,7 +5217,7 @@
       <c r="J125" s="8"/>
       <c r="K125" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -5138,7 +5242,7 @@
       <c r="J126" s="8"/>
       <c r="K126" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -5163,7 +5267,7 @@
       <c r="J127" s="8"/>
       <c r="K127" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -5188,7 +5292,7 @@
       <c r="J128" s="8"/>
       <c r="K128" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -5213,7 +5317,7 @@
       <c r="J129" s="8"/>
       <c r="K129" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -5238,7 +5342,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -5263,7 +5367,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="8">
         <f t="shared" si="4"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -5288,7 +5392,7 @@
       <c r="J132" s="8"/>
       <c r="K132" s="8">
         <f t="shared" ref="K132:K169" si="5">K131+E132-J132</f>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
@@ -5313,7 +5417,7 @@
       <c r="J133" s="8"/>
       <c r="K133" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
@@ -5338,7 +5442,7 @@
       <c r="J134" s="8"/>
       <c r="K134" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
@@ -5363,7 +5467,7 @@
       <c r="J135" s="8"/>
       <c r="K135" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
@@ -5388,7 +5492,7 @@
       <c r="J136" s="8"/>
       <c r="K136" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
@@ -5413,7 +5517,7 @@
       <c r="J137" s="8"/>
       <c r="K137" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
@@ -5431,7 +5535,7 @@
       <c r="J138" s="8"/>
       <c r="K138" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
@@ -5449,7 +5553,7 @@
       <c r="J139" s="8"/>
       <c r="K139" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
@@ -5467,7 +5571,7 @@
       <c r="J140" s="8"/>
       <c r="K140" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
@@ -5485,7 +5589,7 @@
       <c r="J141" s="8"/>
       <c r="K141" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
@@ -5503,7 +5607,7 @@
       <c r="J142" s="8"/>
       <c r="K142" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
@@ -5521,7 +5625,7 @@
       <c r="J143" s="8"/>
       <c r="K143" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
@@ -5539,7 +5643,7 @@
       <c r="J144" s="8"/>
       <c r="K144" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L144" s="5"/>
       <c r="M144" s="5"/>
@@ -5557,7 +5661,7 @@
       <c r="J145" s="8"/>
       <c r="K145" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L145" s="5"/>
       <c r="M145" s="5"/>
@@ -5575,7 +5679,7 @@
       <c r="J146" s="8"/>
       <c r="K146" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L146" s="5"/>
       <c r="M146" s="5"/>
@@ -5593,7 +5697,7 @@
       <c r="J147" s="8"/>
       <c r="K147" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L147" s="5"/>
       <c r="M147" s="5"/>
@@ -5611,7 +5715,7 @@
       <c r="J148" s="8"/>
       <c r="K148" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L148" s="5"/>
       <c r="M148" s="5"/>
@@ -5629,7 +5733,7 @@
       <c r="J149" s="8"/>
       <c r="K149" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
@@ -5647,7 +5751,7 @@
       <c r="J150" s="8"/>
       <c r="K150" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L150" s="5"/>
       <c r="M150" s="5"/>
@@ -5665,7 +5769,7 @@
       <c r="J151" s="8"/>
       <c r="K151" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L151" s="5"/>
       <c r="M151" s="5"/>
@@ -5683,7 +5787,7 @@
       <c r="J152" s="8"/>
       <c r="K152" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
@@ -5701,7 +5805,7 @@
       <c r="J153" s="8"/>
       <c r="K153" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
@@ -5719,7 +5823,7 @@
       <c r="J154" s="8"/>
       <c r="K154" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
@@ -5737,7 +5841,7 @@
       <c r="J155" s="8"/>
       <c r="K155" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
@@ -5755,7 +5859,7 @@
       <c r="J156" s="8"/>
       <c r="K156" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
@@ -5773,7 +5877,7 @@
       <c r="J157" s="8"/>
       <c r="K157" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L157" s="5"/>
       <c r="M157" s="5"/>
@@ -5791,7 +5895,7 @@
       <c r="J158" s="8"/>
       <c r="K158" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
@@ -5809,7 +5913,7 @@
       <c r="J159" s="8"/>
       <c r="K159" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
@@ -5827,7 +5931,7 @@
       <c r="J160" s="8"/>
       <c r="K160" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
@@ -5845,7 +5949,7 @@
       <c r="J161" s="8"/>
       <c r="K161" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
@@ -5863,7 +5967,7 @@
       <c r="J162" s="8"/>
       <c r="K162" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
@@ -5881,7 +5985,7 @@
       <c r="J163" s="8"/>
       <c r="K163" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
@@ -5899,7 +6003,7 @@
       <c r="J164" s="8"/>
       <c r="K164" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
@@ -5917,7 +6021,7 @@
       <c r="J165" s="8"/>
       <c r="K165" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
@@ -5935,7 +6039,7 @@
       <c r="J166" s="8"/>
       <c r="K166" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
@@ -5953,7 +6057,7 @@
       <c r="J167" s="8"/>
       <c r="K167" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
@@ -5971,7 +6075,7 @@
       <c r="J168" s="8"/>
       <c r="K168" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
@@ -5989,7 +6093,7 @@
       <c r="J169" s="8"/>
       <c r="K169" s="8">
         <f t="shared" si="5"/>
-        <v>1985079</v>
+        <v>1064276</v>
       </c>
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
@@ -6021,44 +6125,44 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35">
         <v>44929</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -6076,23 +6180,23 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
